--- a/biology/Zoologie/Des_manchots_et_des_hommes/Des_manchots_et_des_hommes.xlsx
+++ b/biology/Zoologie/Des_manchots_et_des_hommes/Des_manchots_et_des_hommes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Des manchots et des hommes est un documentaire français coréalisé par Luc Jacquet et Jérôme Maison, sorti en 2004.
-Ce film suit le périple des créateurs du film La Marche de l'empereur, dont il est le making-of. Il a été récompensé dans plusieurs festivals, dont trois prix lors du Festival Jules Verne en 2005[1]
+Ce film suit le périple des créateurs du film La Marche de l'empereur, dont il est le making-of. Il a été récompensé dans plusieurs festivals, dont trois prix lors du Festival Jules Verne en 2005
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Titre original : Des manchots et des hommes
 Titre anglais : Of Penguins and Men
@@ -524,14 +538,14 @@
 Musique : Christophe Henrotte
 Montage : Yen Le Van
 Effets spéciaux : Patrick Cavroix
-Conseiller scientifique : Christophe Barbraud[2]
+Conseiller scientifique : Christophe Barbraud
 Production : Yves Darondeau, Christophe Lioud, Emmanuel Priou
 Sociétés de production : Bonne Pioche, avec la participation de Canal+ et en collaboration avec l'Institut polaire français - Paul Émile Victor
 Pays d'origine :  France
 Format : couleur - 1,78:1
 Durée : 52 minutes
-Dates de sortie[3] :
- France : 2004 (première mondiale), 9 avril 2005[4] (Festival Jules Verne)
+Dates de sortie :
+ France : 2004 (première mondiale), 9 avril 2005 (Festival Jules Verne)
  Canada : 4 novembre 2005 (Banff Mountain Film Festival)</t>
         </is>
       </c>
@@ -560,9 +574,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Récompenses obtenues par le film dans les festivals auxquels il a participé à travers le monde[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Récompenses obtenues par le film dans les festivals auxquels il a participé à travers le monde :
 Wildlife Film Festival de Toyama 2005 : One Planet Award
 Festival Grandeur Nature de Val-d'Isère 2005 : Grand prix du public
 Festival Jules Verne 2005 : Meilleur film, Prix Jules-Verne du Public et Prix Jules-Verne de la Jeunesse
